--- a/Data Capture Table.xlsx
+++ b/Data Capture Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewLang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08841C0-D5D3-4319-A534-9DF3DDBA5FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95606515-3202-47C0-B6A8-A768F998D93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="-14355" windowWidth="25785" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="-16065" windowWidth="25785" windowHeight="13530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhaseI-Bfx" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="305">
   <si>
     <t>Naming Scheme: We recommend naming your files with a concatenation of the SRA ID, reference used, and your submitter abbreviation - separated by an underscore. If you populate "Submitter Name For Files" and "Assembly Filename Extension", this sheet will pre-generate that for you. Or, deviate from this schema as necessary for your processes</t>
   </si>
@@ -945,6 +945,12 @@
   </si>
   <si>
     <t>Which approach was used for sequencing?</t>
+  </si>
+  <si>
+    <t>MIX4-C_1469-777_1-1</t>
+  </si>
+  <si>
+    <t>Naming Scheme: We recommend naming your files with a concatenation of the Sample ID, reference used, and your submitter abbreviation - separated by an underscore. If you populate "Submitter Name For Files" and "Assembly Filename Extension", this sheet will pre-generate that for you. Or, deviate from this schema as necessary for your processes</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1683,12 +1689,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1755,10 +1857,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1803,8 +1901,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
@@ -1857,6 +1953,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1880,6 +1995,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2948,7 +3065,7 @@
   </sheetPr>
   <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2971,16 +3088,16 @@
   <sheetData>
     <row r="1" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:21" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -2990,10 +3107,10 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="117"/>
+      <c r="E2" s="128"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -3008,8 +3125,8 @@
       <c r="A3" s="1"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -7000,841 +7117,841 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.3984375" style="94" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" style="94" customWidth="1"/>
-    <col min="3" max="3" width="54.59765625" style="94" customWidth="1"/>
-    <col min="4" max="4" width="50.1328125" style="94" customWidth="1"/>
-    <col min="5" max="5" width="17" style="94" customWidth="1"/>
-    <col min="6" max="6" width="26" style="94" customWidth="1"/>
-    <col min="7" max="7" width="35.86328125" style="94" customWidth="1"/>
-    <col min="8" max="8" width="23.3984375" style="94" customWidth="1"/>
-    <col min="9" max="9" width="29.3984375" style="94" customWidth="1"/>
-    <col min="10" max="11" width="23.3984375" style="94" customWidth="1"/>
-    <col min="12" max="12" width="21" style="94" customWidth="1"/>
-    <col min="13" max="13" width="25" style="94" customWidth="1"/>
-    <col min="14" max="14" width="25.3984375" style="94" customWidth="1"/>
-    <col min="15" max="16" width="26" style="94" customWidth="1"/>
-    <col min="17" max="18" width="29.73046875" style="94" customWidth="1"/>
-    <col min="19" max="26" width="26" style="94" customWidth="1"/>
-    <col min="27" max="27" width="28.3984375" style="94" customWidth="1"/>
-    <col min="28" max="28" width="26.3984375" style="94" customWidth="1"/>
-    <col min="29" max="30" width="28.3984375" style="94" customWidth="1"/>
-    <col min="31" max="32" width="38" style="94" customWidth="1"/>
-    <col min="33" max="33" width="31.265625" style="94" customWidth="1"/>
-    <col min="34" max="34" width="28" style="94" customWidth="1"/>
-    <col min="35" max="35" width="26.86328125" style="94" customWidth="1"/>
-    <col min="36" max="37" width="27.86328125" style="94" customWidth="1"/>
-    <col min="38" max="38" width="22.3984375" style="94" customWidth="1"/>
-    <col min="39" max="39" width="27.265625" style="94" customWidth="1"/>
-    <col min="40" max="40" width="17.3984375" style="94" customWidth="1"/>
-    <col min="41" max="41" width="19.3984375" style="94" customWidth="1"/>
-    <col min="42" max="42" width="14.3984375" style="94" customWidth="1"/>
-    <col min="43" max="16384" width="8.86328125" style="94"/>
+    <col min="1" max="1" width="31.3984375" style="90" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" style="90" customWidth="1"/>
+    <col min="3" max="3" width="54.59765625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="50.1328125" style="90" customWidth="1"/>
+    <col min="5" max="5" width="17" style="90" customWidth="1"/>
+    <col min="6" max="6" width="26" style="90" customWidth="1"/>
+    <col min="7" max="7" width="35.86328125" style="90" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" style="90" customWidth="1"/>
+    <col min="9" max="9" width="29.3984375" style="90" customWidth="1"/>
+    <col min="10" max="11" width="23.3984375" style="90" customWidth="1"/>
+    <col min="12" max="12" width="21" style="90" customWidth="1"/>
+    <col min="13" max="13" width="25" style="90" customWidth="1"/>
+    <col min="14" max="14" width="25.3984375" style="90" customWidth="1"/>
+    <col min="15" max="16" width="26" style="90" customWidth="1"/>
+    <col min="17" max="18" width="29.73046875" style="90" customWidth="1"/>
+    <col min="19" max="26" width="26" style="90" customWidth="1"/>
+    <col min="27" max="27" width="28.3984375" style="90" customWidth="1"/>
+    <col min="28" max="28" width="26.3984375" style="90" customWidth="1"/>
+    <col min="29" max="30" width="28.3984375" style="90" customWidth="1"/>
+    <col min="31" max="32" width="38" style="90" customWidth="1"/>
+    <col min="33" max="33" width="31.265625" style="90" customWidth="1"/>
+    <col min="34" max="34" width="28" style="90" customWidth="1"/>
+    <col min="35" max="35" width="26.86328125" style="90" customWidth="1"/>
+    <col min="36" max="37" width="27.86328125" style="90" customWidth="1"/>
+    <col min="38" max="38" width="22.3984375" style="90" customWidth="1"/>
+    <col min="39" max="39" width="27.265625" style="90" customWidth="1"/>
+    <col min="40" max="40" width="17.3984375" style="90" customWidth="1"/>
+    <col min="41" max="41" width="19.3984375" style="90" customWidth="1"/>
+    <col min="42" max="42" width="14.3984375" style="90" customWidth="1"/>
+    <col min="43" max="16384" width="8.86328125" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="134" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="120" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="120" t="s">
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="131" t="s">
         <v>270</v>
       </c>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="120" t="s">
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
-      <c r="AL1" s="121"/>
-      <c r="AM1" s="122"/>
-    </row>
-    <row r="2" spans="1:40" s="107" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="112" t="s">
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="132"/>
+      <c r="AJ1" s="132"/>
+      <c r="AK1" s="132"/>
+      <c r="AL1" s="132"/>
+      <c r="AM1" s="133"/>
+    </row>
+    <row r="2" spans="1:40" s="103" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="108" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="107" t="s">
         <v>263</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="H2" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="L2" s="110" t="s">
+      <c r="L2" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="M2" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="N2" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="O2" s="110" t="s">
+      <c r="O2" s="106" t="s">
         <v>254</v>
       </c>
-      <c r="P2" s="110" t="s">
+      <c r="P2" s="106" t="s">
         <v>253</v>
       </c>
-      <c r="Q2" s="110" t="s">
+      <c r="Q2" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="R2" s="110" t="s">
+      <c r="R2" s="106" t="s">
         <v>251</v>
       </c>
-      <c r="S2" s="110" t="s">
+      <c r="S2" s="106" t="s">
         <v>250</v>
       </c>
-      <c r="T2" s="110" t="s">
+      <c r="T2" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="110" t="s">
+      <c r="U2" s="106" t="s">
         <v>248</v>
       </c>
-      <c r="V2" s="110" t="s">
+      <c r="V2" s="106" t="s">
         <v>247</v>
       </c>
-      <c r="W2" s="110" t="s">
+      <c r="W2" s="106" t="s">
         <v>246</v>
       </c>
-      <c r="X2" s="110" t="s">
+      <c r="X2" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="Y2" s="110" t="s">
+      <c r="Y2" s="106" t="s">
         <v>244</v>
       </c>
-      <c r="Z2" s="110" t="s">
+      <c r="Z2" s="106" t="s">
         <v>243</v>
       </c>
-      <c r="AA2" s="109" t="s">
+      <c r="AA2" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="AB2" s="109" t="s">
+      <c r="AB2" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="AC2" s="109" t="s">
+      <c r="AC2" s="105" t="s">
         <v>240</v>
       </c>
-      <c r="AD2" s="109" t="s">
+      <c r="AD2" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="AE2" s="109" t="s">
+      <c r="AE2" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="AF2" s="109" t="s">
+      <c r="AF2" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="AG2" s="109" t="s">
+      <c r="AG2" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="AH2" s="109" t="s">
+      <c r="AH2" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="AI2" s="109" t="s">
+      <c r="AI2" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="AJ2" s="109" t="s">
+      <c r="AJ2" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="AK2" s="109" t="s">
+      <c r="AK2" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="AL2" s="109" t="s">
+      <c r="AL2" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="AM2" s="109" t="s">
+      <c r="AM2" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="AN2" s="108" t="s">
+      <c r="AN2" s="104" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="AN3" s="95"/>
+      <c r="E3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="AN3" s="91"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="90" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="AN4" s="95"/>
+      <c r="E4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="AN4" s="91"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="AN5" s="95"/>
+      <c r="E5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="AN5" s="91"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="AN6" s="95"/>
+      <c r="E6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="AN6" s="91"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="AN7" s="95"/>
+      <c r="E7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="AN7" s="91"/>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="90" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="AN8" s="95"/>
+      <c r="E8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="AN8" s="91"/>
     </row>
     <row r="9" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="AN9" s="95"/>
+      <c r="E9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="AN9" s="91"/>
     </row>
     <row r="10" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="AN10" s="95"/>
+      <c r="E10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="AN10" s="91"/>
     </row>
     <row r="11" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="AN11" s="95"/>
+      <c r="E11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="AN11" s="91"/>
     </row>
     <row r="12" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="AN12" s="95"/>
+      <c r="E12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="AN12" s="91"/>
     </row>
     <row r="13" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="AN13" s="95"/>
+      <c r="E13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="AN13" s="91"/>
     </row>
     <row r="14" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="AN14" s="95"/>
+      <c r="E14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="AN14" s="91"/>
     </row>
     <row r="15" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="AN15" s="95"/>
+      <c r="E15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="AN15" s="91"/>
     </row>
     <row r="16" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="AN16" s="95"/>
+      <c r="E16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="AN16" s="91"/>
     </row>
     <row r="17" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="AN17" s="95"/>
+      <c r="E17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="AN17" s="91"/>
     </row>
     <row r="18" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="96"/>
-      <c r="AH18" s="96"/>
-      <c r="AI18" s="96"/>
-      <c r="AJ18" s="96"/>
-      <c r="AK18" s="96"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="96"/>
-      <c r="AN18" s="95"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="91"/>
     </row>
     <row r="19" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="98"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="98"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="98"/>
-      <c r="AM19" s="98"/>
-      <c r="AN19" s="95"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="94"/>
+      <c r="AI19" s="94"/>
+      <c r="AJ19" s="94"/>
+      <c r="AK19" s="94"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="91"/>
     </row>
     <row r="20" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="98"/>
-      <c r="AM20" s="98"/>
-      <c r="AN20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="94"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="91"/>
     </row>
     <row r="21" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="95"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="94"/>
+      <c r="AI21" s="94"/>
+      <c r="AJ21" s="94"/>
+      <c r="AK21" s="94"/>
+      <c r="AL21" s="94"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="91"/>
     </row>
     <row r="22" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="93" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="96"/>
-      <c r="AG22" s="96"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="95"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="92"/>
+      <c r="AN22" s="91"/>
     </row>
     <row r="23" spans="1:40" ht="27" x14ac:dyDescent="0.35">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="95"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="92"/>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="92"/>
+      <c r="AN23" s="91"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="90" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7871,131 +7988,131 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.86328125" style="94" customWidth="1"/>
-    <col min="2" max="2" width="24" style="94" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" style="94" customWidth="1"/>
-    <col min="4" max="4" width="32.86328125" style="94" customWidth="1"/>
-    <col min="5" max="16384" width="8.86328125" style="94"/>
+    <col min="1" max="1" width="37.86328125" style="90" customWidth="1"/>
+    <col min="2" max="2" width="24" style="90" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" style="90" customWidth="1"/>
+    <col min="4" max="4" width="32.86328125" style="90" customWidth="1"/>
+    <col min="5" max="16384" width="8.86328125" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="109" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="90" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="109" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="90" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="90" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="90" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="90" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="90" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="90" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="90" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="90" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="90" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="90" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="90" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="90" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="90" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="90" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="90" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="90" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="90" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="90" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8012,10 +8129,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8037,47 +8154,47 @@
   <sheetData>
     <row r="1" spans="1:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-    </row>
-    <row r="2" spans="1:22" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="125" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+    </row>
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
     </row>
     <row r="3" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -8087,11 +8204,11 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="117"/>
     </row>
     <row r="4" spans="1:22" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="118" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -8108,11 +8225,11 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="117"/>
     </row>
     <row r="5" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -8129,80 +8246,80 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="117"/>
     </row>
     <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="74" t="s">
+      <c r="N6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="76" t="s">
+      <c r="O6" s="74" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="77" t="str">
+      <c r="B7" s="75" t="str">
         <f>D7 &amp; "_" &amp; B$5</f>
         <v>SC2_composite_submittername</v>
       </c>
-      <c r="C7" s="56" t="str">
+      <c r="C7" s="54" t="str">
         <f>D7 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
         <v>SC2_composite_submittername.fa</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="78"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="76"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="22"/>
@@ -8212,32 +8329,32 @@
       <c r="V7" s="22"/>
     </row>
     <row r="8" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="77" t="str">
+      <c r="B8" s="75" t="str">
         <f t="shared" ref="B8:B9" si="0">D8 &amp; "_" &amp; B$5</f>
         <v>RSVA_1540_submittername</v>
       </c>
-      <c r="C8" s="56" t="str">
+      <c r="C8" s="54" t="str">
         <f t="shared" ref="C8:C9" si="1">D8 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
         <v>RSVA_1540_submittername.fa</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="79"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="77"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="22"/>
@@ -8247,32 +8364,32 @@
       <c r="V8" s="22"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="77" t="str">
+      <c r="B9" s="75" t="str">
         <f t="shared" si="0"/>
         <v>RSVB_3381_submittername</v>
       </c>
-      <c r="C9" s="56" t="str">
+      <c r="C9" s="54" t="str">
         <f t="shared" si="1"/>
         <v>RSVB_3381_submittername.fa</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="79"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="77"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="25"/>
       <c r="R9" s="22"/>
@@ -8282,32 +8399,32 @@
       <c r="V9" s="22"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="80" t="str">
+      <c r="B10" s="78" t="str">
         <f>D10 &amp; "_" &amp; F10 &amp; "_" &amp; B$5</f>
         <v>H1N1_1469_flua1_submittername</v>
       </c>
-      <c r="C10" s="65" t="str">
+      <c r="C10" s="63" t="str">
         <f>D10 &amp; "_" &amp; F10 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
         <v>H1N1_1469_flua1_submittername.fa</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="81"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="79"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="22"/>
@@ -8317,7 +8434,7 @@
       <c r="V10" s="22"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="82" t="str">
+      <c r="B11" s="80" t="str">
         <f t="shared" ref="B11:B74" si="2">D11 &amp; "_" &amp; F11 &amp; "_" &amp; B$5</f>
         <v>H1N1_1469_flua2_submittername</v>
       </c>
@@ -8325,7 +8442,7 @@
         <f t="shared" ref="C11:C74" si="3">D11 &amp; "_" &amp; F11 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
         <v>H1N1_1469_flua2_submittername.fa</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="110" t="s">
         <v>133</v>
       </c>
       <c r="E11" s="22" t="s">
@@ -8338,10 +8455,10 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
-      <c r="O11" s="83"/>
+      <c r="O11" s="81"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="82" t="str">
+      <c r="B12" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H1N1_1469_flua3_submittername</v>
       </c>
@@ -8349,7 +8466,7 @@
         <f t="shared" si="3"/>
         <v>H1N1_1469_flua3_submittername.fa</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="110" t="s">
         <v>133</v>
       </c>
       <c r="E12" s="22" t="s">
@@ -8362,10 +8479,10 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
-      <c r="O12" s="83"/>
+      <c r="O12" s="81"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="82" t="str">
+      <c r="B13" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H1N1_1469_flua4_submittername</v>
       </c>
@@ -8373,7 +8490,7 @@
         <f t="shared" si="3"/>
         <v>H1N1_1469_flua4_submittername.fa</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="110" t="s">
         <v>133</v>
       </c>
       <c r="E13" s="22" t="s">
@@ -8386,10 +8503,10 @@
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
-      <c r="O13" s="83"/>
+      <c r="O13" s="81"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="82" t="str">
+      <c r="B14" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H1N1_1469_flua5_submittername</v>
       </c>
@@ -8397,7 +8514,7 @@
         <f t="shared" si="3"/>
         <v>H1N1_1469_flua5_submittername.fa</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="110" t="s">
         <v>133</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -8410,10 +8527,10 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
-      <c r="O14" s="83"/>
+      <c r="O14" s="81"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="82" t="str">
+      <c r="B15" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H1N1_1469_flua6_submittername</v>
       </c>
@@ -8421,7 +8538,7 @@
         <f t="shared" si="3"/>
         <v>H1N1_1469_flua6_submittername.fa</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="110" t="s">
         <v>133</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -8434,10 +8551,10 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
-      <c r="O15" s="83"/>
+      <c r="O15" s="81"/>
     </row>
     <row r="16" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="82" t="str">
+      <c r="B16" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H1N1_1469_flua7_submittername</v>
       </c>
@@ -8445,7 +8562,7 @@
         <f t="shared" si="3"/>
         <v>H1N1_1469_flua7_submittername.fa</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="110" t="s">
         <v>133</v>
       </c>
       <c r="E16" s="22" t="s">
@@ -8458,63 +8575,63 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
-      <c r="O16" s="83"/>
+      <c r="O16" s="81"/>
     </row>
     <row r="17" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="77" t="str">
+      <c r="B17" s="75" t="str">
         <f t="shared" si="2"/>
         <v>H1N1_1469_flua8_submittername</v>
       </c>
-      <c r="C17" s="56" t="str">
+      <c r="C17" s="54" t="str">
         <f t="shared" si="3"/>
         <v>H1N1_1469_flua8_submittername.fa</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="84"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="82"/>
     </row>
     <row r="18" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="80" t="str">
+      <c r="B18" s="78" t="str">
         <f t="shared" si="2"/>
         <v>H3N2_777_flua1_submittername</v>
       </c>
-      <c r="C18" s="65" t="str">
+      <c r="C18" s="63" t="str">
         <f t="shared" si="3"/>
         <v>H3N2_777_flua1_submittername.fa</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="81"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="79"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="22"/>
@@ -8524,7 +8641,7 @@
       <c r="V18" s="22"/>
     </row>
     <row r="19" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="82" t="str">
+      <c r="B19" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H3N2_777_flua2_submittername</v>
       </c>
@@ -8532,7 +8649,7 @@
         <f t="shared" si="3"/>
         <v>H3N2_777_flua2_submittername.fa</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="110" t="s">
         <v>134</v>
       </c>
       <c r="E19" s="22" t="s">
@@ -8545,10 +8662,10 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
-      <c r="O19" s="83"/>
+      <c r="O19" s="81"/>
     </row>
     <row r="20" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="82" t="str">
+      <c r="B20" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H3N2_777_flua3_submittername</v>
       </c>
@@ -8556,7 +8673,7 @@
         <f t="shared" si="3"/>
         <v>H3N2_777_flua3_submittername.fa</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="110" t="s">
         <v>134</v>
       </c>
       <c r="E20" s="22" t="s">
@@ -8569,10 +8686,10 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
-      <c r="O20" s="83"/>
+      <c r="O20" s="81"/>
     </row>
     <row r="21" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="82" t="str">
+      <c r="B21" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H3N2_777_flua4_submittername</v>
       </c>
@@ -8580,7 +8697,7 @@
         <f t="shared" si="3"/>
         <v>H3N2_777_flua4_submittername.fa</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="110" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -8593,10 +8710,10 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
-      <c r="O21" s="83"/>
+      <c r="O21" s="81"/>
     </row>
     <row r="22" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="82" t="str">
+      <c r="B22" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H3N2_777_flua5_submittername</v>
       </c>
@@ -8604,7 +8721,7 @@
         <f t="shared" si="3"/>
         <v>H3N2_777_flua5_submittername.fa</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="110" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -8617,10 +8734,10 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
-      <c r="O22" s="83"/>
+      <c r="O22" s="81"/>
     </row>
     <row r="23" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="82" t="str">
+      <c r="B23" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H3N2_777_flua6_submittername</v>
       </c>
@@ -8628,7 +8745,7 @@
         <f t="shared" si="3"/>
         <v>H3N2_777_flua6_submittername.fa</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="110" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="22" t="s">
@@ -8641,10 +8758,10 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
-      <c r="O23" s="83"/>
+      <c r="O23" s="81"/>
     </row>
     <row r="24" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="82" t="str">
+      <c r="B24" s="80" t="str">
         <f t="shared" si="2"/>
         <v>H3N2_777_flua7_submittername</v>
       </c>
@@ -8652,7 +8769,7 @@
         <f t="shared" si="3"/>
         <v>H3N2_777_flua7_submittername.fa</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="110" t="s">
         <v>134</v>
       </c>
       <c r="E24" s="22" t="s">
@@ -8665,63 +8782,63 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
-      <c r="O24" s="83"/>
+      <c r="O24" s="81"/>
     </row>
     <row r="25" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="77" t="str">
+      <c r="B25" s="75" t="str">
         <f t="shared" si="2"/>
         <v>H3N2_777_flua8_submittername</v>
       </c>
-      <c r="C25" s="56" t="str">
+      <c r="C25" s="54" t="str">
         <f t="shared" si="3"/>
         <v>H3N2_777_flua8_submittername.fa</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="84"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="82"/>
     </row>
     <row r="26" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="80" t="str">
+      <c r="B26" s="78" t="str">
         <f t="shared" si="2"/>
         <v>INFB_1931_flua1_submittername</v>
       </c>
-      <c r="C26" s="65" t="str">
+      <c r="C26" s="63" t="str">
         <f t="shared" si="3"/>
         <v>INFB_1931_flua1_submittername.fa</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="81"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="79"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="22"/>
@@ -8731,7 +8848,7 @@
       <c r="V26" s="22"/>
     </row>
     <row r="27" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="82" t="str">
+      <c r="B27" s="80" t="str">
         <f t="shared" si="2"/>
         <v>INFB_1931_flua2_submittername</v>
       </c>
@@ -8739,7 +8856,7 @@
         <f t="shared" si="3"/>
         <v>INFB_1931_flua2_submittername.fa</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="110" t="s">
         <v>135</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -8752,10 +8869,10 @@
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
-      <c r="O27" s="83"/>
+      <c r="O27" s="81"/>
     </row>
     <row r="28" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="82" t="str">
+      <c r="B28" s="80" t="str">
         <f t="shared" si="2"/>
         <v>INFB_1931_flua3_submittername</v>
       </c>
@@ -8763,7 +8880,7 @@
         <f t="shared" si="3"/>
         <v>INFB_1931_flua3_submittername.fa</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="110" t="s">
         <v>135</v>
       </c>
       <c r="E28" s="22" t="s">
@@ -8776,10 +8893,10 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
-      <c r="O28" s="83"/>
+      <c r="O28" s="81"/>
     </row>
     <row r="29" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="82" t="str">
+      <c r="B29" s="80" t="str">
         <f t="shared" si="2"/>
         <v>INFB_1931_flua4_submittername</v>
       </c>
@@ -8787,7 +8904,7 @@
         <f t="shared" si="3"/>
         <v>INFB_1931_flua4_submittername.fa</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="110" t="s">
         <v>135</v>
       </c>
       <c r="E29" s="22" t="s">
@@ -8800,10 +8917,10 @@
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
-      <c r="O29" s="83"/>
+      <c r="O29" s="81"/>
     </row>
     <row r="30" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="82" t="str">
+      <c r="B30" s="80" t="str">
         <f t="shared" si="2"/>
         <v>INFB_1931_flua5_submittername</v>
       </c>
@@ -8811,7 +8928,7 @@
         <f t="shared" si="3"/>
         <v>INFB_1931_flua5_submittername.fa</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="110" t="s">
         <v>135</v>
       </c>
       <c r="E30" s="22" t="s">
@@ -8824,10 +8941,10 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
-      <c r="O30" s="83"/>
+      <c r="O30" s="81"/>
     </row>
     <row r="31" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="82" t="str">
+      <c r="B31" s="80" t="str">
         <f t="shared" si="2"/>
         <v>INFB_1931_flua6_submittername</v>
       </c>
@@ -8835,7 +8952,7 @@
         <f t="shared" si="3"/>
         <v>INFB_1931_flua6_submittername.fa</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="110" t="s">
         <v>135</v>
       </c>
       <c r="E31" s="22" t="s">
@@ -8848,10 +8965,10 @@
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
-      <c r="O31" s="83"/>
+      <c r="O31" s="81"/>
     </row>
     <row r="32" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="82" t="str">
+      <c r="B32" s="80" t="str">
         <f t="shared" si="2"/>
         <v>INFB_1931_flua7_submittername</v>
       </c>
@@ -8859,7 +8976,7 @@
         <f t="shared" si="3"/>
         <v>INFB_1931_flua7_submittername.fa</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="110" t="s">
         <v>135</v>
       </c>
       <c r="E32" s="22" t="s">
@@ -8872,63 +8989,63 @@
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
-      <c r="O32" s="83"/>
+      <c r="O32" s="81"/>
     </row>
     <row r="33" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="77" t="str">
+      <c r="B33" s="75" t="str">
         <f t="shared" si="2"/>
         <v>INFB_1931_flua8_submittername</v>
       </c>
-      <c r="C33" s="56" t="str">
+      <c r="C33" s="54" t="str">
         <f t="shared" si="3"/>
         <v>INFB_1931_flua8_submittername.fa</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="84"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="82"/>
     </row>
     <row r="34" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="80" t="str">
+      <c r="B34" s="78" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-A_1469-777_4-1_flua1_submittername</v>
       </c>
-      <c r="C34" s="65" t="str">
+      <c r="C34" s="63" t="str">
         <f t="shared" si="3"/>
         <v>MIX1-A_1469-777_4-1_flua1_submittername.fa</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="67" t="s">
+      <c r="E34" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="67" t="s">
+      <c r="F34" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="81"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="79"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="22"/>
@@ -8938,7 +9055,7 @@
       <c r="V34" s="22"/>
     </row>
     <row r="35" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="82" t="str">
+      <c r="B35" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-A_1469-777_4-1_flua2_submittername</v>
       </c>
@@ -8946,7 +9063,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-A_1469-777_4-1_flua2_submittername.fa</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="110" t="s">
         <v>136</v>
       </c>
       <c r="E35" s="22" t="s">
@@ -8959,10 +9076,10 @@
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
-      <c r="O35" s="83"/>
+      <c r="O35" s="81"/>
     </row>
     <row r="36" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="82" t="str">
+      <c r="B36" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-A_1469-777_4-1_flua3_submittername</v>
       </c>
@@ -8970,7 +9087,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-A_1469-777_4-1_flua3_submittername.fa</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="110" t="s">
         <v>136</v>
       </c>
       <c r="E36" s="22" t="s">
@@ -8983,10 +9100,10 @@
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
-      <c r="O36" s="83"/>
+      <c r="O36" s="81"/>
     </row>
     <row r="37" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="82" t="str">
+      <c r="B37" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-A_1469-777_4-1_flua4_submittername</v>
       </c>
@@ -8994,7 +9111,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-A_1469-777_4-1_flua4_submittername.fa</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="110" t="s">
         <v>136</v>
       </c>
       <c r="E37" s="22" t="s">
@@ -9007,10 +9124,10 @@
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
-      <c r="O37" s="83"/>
+      <c r="O37" s="81"/>
     </row>
     <row r="38" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="82" t="str">
+      <c r="B38" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-A_1469-777_4-1_flua5_submittername</v>
       </c>
@@ -9018,7 +9135,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-A_1469-777_4-1_flua5_submittername.fa</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="110" t="s">
         <v>136</v>
       </c>
       <c r="E38" s="22" t="s">
@@ -9031,10 +9148,10 @@
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
-      <c r="O38" s="83"/>
+      <c r="O38" s="81"/>
     </row>
     <row r="39" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="82" t="str">
+      <c r="B39" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-A_1469-777_4-1_flua6_submittername</v>
       </c>
@@ -9042,7 +9159,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-A_1469-777_4-1_flua6_submittername.fa</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="110" t="s">
         <v>136</v>
       </c>
       <c r="E39" s="22" t="s">
@@ -9055,10 +9172,10 @@
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
-      <c r="O39" s="83"/>
+      <c r="O39" s="81"/>
     </row>
     <row r="40" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="82" t="str">
+      <c r="B40" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-A_1469-777_4-1_flua7_submittername</v>
       </c>
@@ -9066,7 +9183,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-A_1469-777_4-1_flua7_submittername.fa</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="110" t="s">
         <v>136</v>
       </c>
       <c r="E40" s="22" t="s">
@@ -9079,38 +9196,38 @@
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
-      <c r="O40" s="83"/>
+      <c r="O40" s="81"/>
     </row>
     <row r="41" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="77" t="str">
+      <c r="B41" s="75" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-A_1469-777_4-1_flua8_submittername</v>
       </c>
-      <c r="C41" s="56" t="str">
+      <c r="C41" s="54" t="str">
         <f t="shared" si="3"/>
         <v>MIX1-A_1469-777_4-1_flua8_submittername.fa</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="59"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="84"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="82"/>
     </row>
     <row r="42" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="82" t="str">
+      <c r="B42" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-B_1469-777_1-1_flua1_submittername</v>
       </c>
@@ -9118,24 +9235,24 @@
         <f t="shared" si="3"/>
         <v>MIX1-B_1469-777_1-1_flua1_submittername.fa</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="110" t="s">
         <v>137</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="65" t="s">
         <v>145</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
-      <c r="I42" s="68"/>
+      <c r="I42" s="66"/>
       <c r="J42" s="23"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
-      <c r="O42" s="85"/>
+      <c r="O42" s="83"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="22"/>
@@ -9145,7 +9262,7 @@
       <c r="V42" s="22"/>
     </row>
     <row r="43" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="82" t="str">
+      <c r="B43" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-B_1469-777_1-1_flua2_submittername</v>
       </c>
@@ -9153,7 +9270,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-B_1469-777_1-1_flua2_submittername.fa</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="110" t="s">
         <v>137</v>
       </c>
       <c r="E43" s="22" t="s">
@@ -9166,10 +9283,10 @@
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
-      <c r="O43" s="83"/>
+      <c r="O43" s="81"/>
     </row>
     <row r="44" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="82" t="str">
+      <c r="B44" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-B_1469-777_1-1_flua3_submittername</v>
       </c>
@@ -9177,7 +9294,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-B_1469-777_1-1_flua3_submittername.fa</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="110" t="s">
         <v>137</v>
       </c>
       <c r="E44" s="22" t="s">
@@ -9190,10 +9307,10 @@
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
-      <c r="O44" s="83"/>
+      <c r="O44" s="81"/>
     </row>
     <row r="45" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="82" t="str">
+      <c r="B45" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-B_1469-777_1-1_flua4_submittername</v>
       </c>
@@ -9201,7 +9318,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-B_1469-777_1-1_flua4_submittername.fa</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="110" t="s">
         <v>137</v>
       </c>
       <c r="E45" s="22" t="s">
@@ -9214,10 +9331,10 @@
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
-      <c r="O45" s="83"/>
+      <c r="O45" s="81"/>
     </row>
     <row r="46" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="82" t="str">
+      <c r="B46" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-B_1469-777_1-1_flua5_submittername</v>
       </c>
@@ -9225,7 +9342,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-B_1469-777_1-1_flua5_submittername.fa</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="110" t="s">
         <v>137</v>
       </c>
       <c r="E46" s="22" t="s">
@@ -9238,10 +9355,10 @@
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
-      <c r="O46" s="83"/>
+      <c r="O46" s="81"/>
     </row>
     <row r="47" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="82" t="str">
+      <c r="B47" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-B_1469-777_1-1_flua6_submittername</v>
       </c>
@@ -9249,7 +9366,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-B_1469-777_1-1_flua6_submittername.fa</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="110" t="s">
         <v>137</v>
       </c>
       <c r="E47" s="22" t="s">
@@ -9262,10 +9379,10 @@
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
-      <c r="O47" s="83"/>
+      <c r="O47" s="81"/>
     </row>
     <row r="48" spans="2:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="82" t="str">
+      <c r="B48" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-B_1469-777_1-1_flua7_submittername</v>
       </c>
@@ -9273,7 +9390,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-B_1469-777_1-1_flua7_submittername.fa</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="110" t="s">
         <v>137</v>
       </c>
       <c r="E48" s="22" t="s">
@@ -9286,67 +9403,67 @@
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
-      <c r="O48" s="83"/>
+      <c r="O48" s="81"/>
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="77" t="str">
+      <c r="B49" s="75" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-B_1469-777_1-1_flua8_submittername</v>
       </c>
-      <c r="C49" s="56" t="str">
+      <c r="C49" s="54" t="str">
         <f t="shared" si="3"/>
         <v>MIX1-B_1469-777_1-1_flua8_submittername.fa</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="59"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="84"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="82"/>
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="80" t="str">
+      <c r="B50" s="78" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-C_1469-777_1-4_flua1_submittername</v>
       </c>
-      <c r="C50" s="65" t="str">
+      <c r="C50" s="63" t="str">
         <f t="shared" si="3"/>
         <v>MIX1-C_1469-777_1-4_flua1_submittername.fa</v>
       </c>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="67" t="s">
+      <c r="F50" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="86"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="84"/>
       <c r="P50" s="23"/>
     </row>
     <row r="51" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="82" t="str">
+      <c r="B51" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-C_1469-777_1-4_flua2_submittername</v>
       </c>
@@ -9354,7 +9471,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-C_1469-777_1-4_flua2_submittername.fa</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="110" t="s">
         <v>138</v>
       </c>
       <c r="E51" s="22" t="s">
@@ -9367,10 +9484,10 @@
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
-      <c r="O51" s="83"/>
+      <c r="O51" s="81"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="82" t="str">
+      <c r="B52" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-C_1469-777_1-4_flua3_submittername</v>
       </c>
@@ -9378,7 +9495,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-C_1469-777_1-4_flua3_submittername.fa</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="110" t="s">
         <v>138</v>
       </c>
       <c r="E52" s="22" t="s">
@@ -9391,10 +9508,10 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
-      <c r="O52" s="83"/>
+      <c r="O52" s="81"/>
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="82" t="str">
+      <c r="B53" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-C_1469-777_1-4_flua4_submittername</v>
       </c>
@@ -9402,7 +9519,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-C_1469-777_1-4_flua4_submittername.fa</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="110" t="s">
         <v>138</v>
       </c>
       <c r="E53" s="22" t="s">
@@ -9415,10 +9532,10 @@
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
-      <c r="O53" s="83"/>
+      <c r="O53" s="81"/>
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="82" t="str">
+      <c r="B54" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-C_1469-777_1-4_flua5_submittername</v>
       </c>
@@ -9426,7 +9543,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-C_1469-777_1-4_flua5_submittername.fa</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="110" t="s">
         <v>138</v>
       </c>
       <c r="E54" s="22" t="s">
@@ -9439,10 +9556,10 @@
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
-      <c r="O54" s="83"/>
+      <c r="O54" s="81"/>
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="82" t="str">
+      <c r="B55" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-C_1469-777_1-4_flua6_submittername</v>
       </c>
@@ -9450,7 +9567,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-C_1469-777_1-4_flua6_submittername.fa</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="110" t="s">
         <v>138</v>
       </c>
       <c r="E55" s="22" t="s">
@@ -9463,10 +9580,10 @@
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
-      <c r="O55" s="83"/>
+      <c r="O55" s="81"/>
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="82" t="str">
+      <c r="B56" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-C_1469-777_1-4_flua7_submittername</v>
       </c>
@@ -9474,7 +9591,7 @@
         <f t="shared" si="3"/>
         <v>MIX1-C_1469-777_1-4_flua7_submittername.fa</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="110" t="s">
         <v>138</v>
       </c>
       <c r="E56" s="22" t="s">
@@ -9487,66 +9604,66 @@
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
-      <c r="O56" s="83"/>
+      <c r="O56" s="81"/>
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="77" t="str">
+      <c r="B57" s="75" t="str">
         <f t="shared" si="2"/>
         <v>MIX1-C_1469-777_1-4_flua8_submittername</v>
       </c>
-      <c r="C57" s="56" t="str">
+      <c r="C57" s="54" t="str">
         <f t="shared" si="3"/>
         <v>MIX1-C_1469-777_1-4_flua8_submittername.fa</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E57" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F57" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G57" s="59"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="84"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="82"/>
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="80" t="str">
+      <c r="B58" s="78" t="str">
         <f t="shared" si="2"/>
         <v>MIX2-A_1540-3381_4-1_rsva_submittername</v>
       </c>
-      <c r="C58" s="65" t="str">
+      <c r="C58" s="63" t="str">
         <f t="shared" si="3"/>
         <v>MIX2-A_1540-3381_4-1_rsva_submittername.fa</v>
       </c>
-      <c r="D58" s="66" t="s">
+      <c r="D58" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="70" t="s">
+      <c r="E58" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="70" t="s">
+      <c r="F58" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="G58" s="67"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="87"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="85"/>
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="82" t="str">
+      <c r="B59" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX2-A_1540-3381_4-1_rsvb_submittername</v>
       </c>
@@ -9554,23 +9671,23 @@
         <f t="shared" si="3"/>
         <v>MIX2-A_1540-3381_4-1_rsvb_submittername.fa</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="110" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="54" t="s">
+      <c r="E59" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="54" t="s">
+      <c r="F59" s="111" t="s">
         <v>157</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
-      <c r="O59" s="83"/>
+      <c r="O59" s="81"/>
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="82" t="str">
+      <c r="B60" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX2-B_1540-3381_1-1_rsva_submittername</v>
       </c>
@@ -9578,23 +9695,23 @@
         <f t="shared" si="3"/>
         <v>MIX2-B_1540-3381_1-1_rsva_submittername.fa</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="E60" s="54" t="s">
+      <c r="E60" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="54" t="s">
+      <c r="F60" s="111" t="s">
         <v>156</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
-      <c r="O60" s="83"/>
+      <c r="O60" s="81"/>
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="82" t="str">
+      <c r="B61" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX2-B_1540-3381_1-1_rsvb_submittername</v>
       </c>
@@ -9602,23 +9719,23 @@
         <f t="shared" si="3"/>
         <v>MIX2-B_1540-3381_1-1_rsvb_submittername.fa</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="54" t="s">
+      <c r="E61" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="111" t="s">
         <v>157</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
-      <c r="O61" s="83"/>
+      <c r="O61" s="81"/>
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="82" t="str">
+      <c r="B62" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX2-C_1540-3381_1-4_rsva_submittername</v>
       </c>
@@ -9626,23 +9743,23 @@
         <f t="shared" si="3"/>
         <v>MIX2-C_1540-3381_1-4_rsva_submittername.fa</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="54" t="s">
+      <c r="E62" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="F62" s="54" t="s">
+      <c r="F62" s="111" t="s">
         <v>156</v>
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
-      <c r="O62" s="83"/>
+      <c r="O62" s="81"/>
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="82" t="str">
+      <c r="B63" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX2-C_1540-3381_1-4_rsvb_submittername</v>
       </c>
@@ -9650,79 +9767,79 @@
         <f t="shared" si="3"/>
         <v>MIX2-C_1540-3381_1-4_rsvb_submittername.fa</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="E63" s="54" t="s">
+      <c r="E63" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="111" t="s">
         <v>157</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
-      <c r="O63" s="83"/>
+      <c r="O63" s="81"/>
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="77" t="str">
+      <c r="B64" s="75" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-A_1540-1469_4-1_rsva_submittername</v>
       </c>
-      <c r="C64" s="56" t="str">
+      <c r="C64" s="54" t="str">
         <f t="shared" si="3"/>
         <v>MIX3-A_1540-1469_4-1_rsva_submittername.fa</v>
       </c>
-      <c r="D64" s="57" t="s">
+      <c r="D64" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="72" t="s">
+      <c r="E64" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="F64" s="72" t="s">
+      <c r="F64" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="G64" s="59"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="69"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="69"/>
-      <c r="O64" s="84"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="82"/>
     </row>
     <row r="65" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="80" t="str">
+      <c r="B65" s="78" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-A_1540-1469_4-1_flua1_submittername</v>
       </c>
-      <c r="C65" s="65" t="str">
+      <c r="C65" s="63" t="str">
         <f t="shared" si="3"/>
         <v>MIX3-A_1540-1469_4-1_flua1_submittername.fa</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="67" t="s">
+      <c r="E65" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="F65" s="67" t="s">
+      <c r="F65" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="G65" s="67"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
-      <c r="O65" s="87"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="85"/>
     </row>
     <row r="66" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="82" t="str">
+      <c r="B66" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-A_1540-1469_4-1_flua2_submittername</v>
       </c>
@@ -9730,7 +9847,7 @@
         <f t="shared" si="3"/>
         <v>MIX3-A_1540-1469_4-1_flua2_submittername.fa</v>
       </c>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="110" t="s">
         <v>142</v>
       </c>
       <c r="E66" s="22" t="s">
@@ -9743,10 +9860,10 @@
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
-      <c r="O66" s="83"/>
+      <c r="O66" s="81"/>
     </row>
     <row r="67" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="82" t="str">
+      <c r="B67" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-A_1540-1469_4-1_flua3_submittername</v>
       </c>
@@ -9754,7 +9871,7 @@
         <f t="shared" si="3"/>
         <v>MIX3-A_1540-1469_4-1_flua3_submittername.fa</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="110" t="s">
         <v>142</v>
       </c>
       <c r="E67" s="22" t="s">
@@ -9767,10 +9884,10 @@
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23"/>
-      <c r="O67" s="83"/>
+      <c r="O67" s="81"/>
     </row>
     <row r="68" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="82" t="str">
+      <c r="B68" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-A_1540-1469_4-1_flua4_submittername</v>
       </c>
@@ -9778,7 +9895,7 @@
         <f t="shared" si="3"/>
         <v>MIX3-A_1540-1469_4-1_flua4_submittername.fa</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="110" t="s">
         <v>142</v>
       </c>
       <c r="E68" s="22" t="s">
@@ -9791,10 +9908,10 @@
       <c r="H68" s="23"/>
       <c r="I68" s="23"/>
       <c r="J68" s="23"/>
-      <c r="O68" s="83"/>
+      <c r="O68" s="81"/>
     </row>
     <row r="69" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="82" t="str">
+      <c r="B69" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-A_1540-1469_4-1_flua5_submittername</v>
       </c>
@@ -9802,7 +9919,7 @@
         <f t="shared" si="3"/>
         <v>MIX3-A_1540-1469_4-1_flua5_submittername.fa</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="110" t="s">
         <v>142</v>
       </c>
       <c r="E69" s="22" t="s">
@@ -9815,10 +9932,10 @@
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
-      <c r="O69" s="83"/>
+      <c r="O69" s="81"/>
     </row>
     <row r="70" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="82" t="str">
+      <c r="B70" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-A_1540-1469_4-1_flua6_submittername</v>
       </c>
@@ -9826,7 +9943,7 @@
         <f t="shared" si="3"/>
         <v>MIX3-A_1540-1469_4-1_flua6_submittername.fa</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="110" t="s">
         <v>142</v>
       </c>
       <c r="E70" s="22" t="s">
@@ -9839,10 +9956,10 @@
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
       <c r="J70" s="23"/>
-      <c r="O70" s="83"/>
+      <c r="O70" s="81"/>
     </row>
     <row r="71" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="82" t="str">
+      <c r="B71" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-A_1540-1469_4-1_flua7_submittername</v>
       </c>
@@ -9850,7 +9967,7 @@
         <f t="shared" si="3"/>
         <v>MIX3-A_1540-1469_4-1_flua7_submittername.fa</v>
       </c>
-      <c r="D71" s="55" t="s">
+      <c r="D71" s="110" t="s">
         <v>142</v>
       </c>
       <c r="E71" s="22" t="s">
@@ -9863,66 +9980,66 @@
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
       <c r="J71" s="23"/>
-      <c r="O71" s="83"/>
+      <c r="O71" s="81"/>
     </row>
     <row r="72" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="77" t="str">
+      <c r="B72" s="75" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-A_1540-1469_4-1_flua8_submittername</v>
       </c>
-      <c r="C72" s="56" t="str">
+      <c r="C72" s="54" t="str">
         <f t="shared" si="3"/>
         <v>MIX3-A_1540-1469_4-1_flua8_submittername.fa</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="E72" s="59" t="s">
+      <c r="E72" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F72" s="59" t="s">
+      <c r="F72" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G72" s="59"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="84"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="82"/>
     </row>
     <row r="73" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="80" t="str">
+      <c r="B73" s="78" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-B_1540-1469_1-1_rsva_submittername</v>
       </c>
-      <c r="C73" s="65" t="str">
+      <c r="C73" s="63" t="str">
         <f t="shared" si="3"/>
         <v>MIX3-B_1540-1469_1-1_rsva_submittername.fa</v>
       </c>
-      <c r="D73" s="66" t="s">
+      <c r="D73" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="70" t="s">
+      <c r="E73" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="67" t="s">
+      <c r="F73" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="G73" s="67"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="87"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="85"/>
     </row>
     <row r="74" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="82" t="str">
+      <c r="B74" s="80" t="str">
         <f t="shared" si="2"/>
         <v>MIX3-B_1540-1469_1-1_flua1_submittername</v>
       </c>
@@ -9930,7 +10047,7 @@
         <f t="shared" si="3"/>
         <v>MIX3-B_1540-1469_1-1_flua1_submittername.fa</v>
       </c>
-      <c r="D74" s="55" t="s">
+      <c r="D74" s="110" t="s">
         <v>143</v>
       </c>
       <c r="E74" s="22" t="s">
@@ -9943,18 +10060,18 @@
       <c r="H74" s="23"/>
       <c r="I74" s="23"/>
       <c r="J74" s="23"/>
-      <c r="O74" s="83"/>
+      <c r="O74" s="81"/>
     </row>
     <row r="75" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="82" t="str">
-        <f t="shared" ref="B75:B90" si="4">D75 &amp; "_" &amp; F75 &amp; "_" &amp; B$5</f>
+      <c r="B75" s="80" t="str">
+        <f t="shared" ref="B75:B98" si="4">D75 &amp; "_" &amp; F75 &amp; "_" &amp; B$5</f>
         <v>MIX3-B_1540-1469_1-1_flua2_submittername</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f t="shared" ref="C75:C90" si="5">D75 &amp; "_" &amp; F75 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
+        <f t="shared" ref="C75:C98" si="5">D75 &amp; "_" &amp; F75 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
         <v>MIX3-B_1540-1469_1-1_flua2_submittername.fa</v>
       </c>
-      <c r="D75" s="55" t="s">
+      <c r="D75" s="110" t="s">
         <v>143</v>
       </c>
       <c r="E75" s="22" t="s">
@@ -9967,10 +10084,10 @@
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23"/>
-      <c r="O75" s="83"/>
+      <c r="O75" s="81"/>
     </row>
     <row r="76" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="82" t="str">
+      <c r="B76" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-B_1540-1469_1-1_flua3_submittername</v>
       </c>
@@ -9978,7 +10095,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-B_1540-1469_1-1_flua3_submittername.fa</v>
       </c>
-      <c r="D76" s="55" t="s">
+      <c r="D76" s="110" t="s">
         <v>143</v>
       </c>
       <c r="E76" s="22" t="s">
@@ -9991,10 +10108,10 @@
       <c r="H76" s="23"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23"/>
-      <c r="O76" s="83"/>
+      <c r="O76" s="81"/>
     </row>
     <row r="77" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="82" t="str">
+      <c r="B77" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-B_1540-1469_1-1_flua4_submittername</v>
       </c>
@@ -10002,7 +10119,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-B_1540-1469_1-1_flua4_submittername.fa</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="110" t="s">
         <v>143</v>
       </c>
       <c r="E77" s="22" t="s">
@@ -10015,10 +10132,10 @@
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
       <c r="J77" s="23"/>
-      <c r="O77" s="83"/>
+      <c r="O77" s="81"/>
     </row>
     <row r="78" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="82" t="str">
+      <c r="B78" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-B_1540-1469_1-1_flua5_submittername</v>
       </c>
@@ -10026,7 +10143,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-B_1540-1469_1-1_flua5_submittername.fa</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D78" s="110" t="s">
         <v>143</v>
       </c>
       <c r="E78" s="22" t="s">
@@ -10039,10 +10156,10 @@
       <c r="H78" s="23"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23"/>
-      <c r="O78" s="83"/>
+      <c r="O78" s="81"/>
     </row>
     <row r="79" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="82" t="str">
+      <c r="B79" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-B_1540-1469_1-1_flua6_submittername</v>
       </c>
@@ -10050,7 +10167,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-B_1540-1469_1-1_flua6_submittername.fa</v>
       </c>
-      <c r="D79" s="55" t="s">
+      <c r="D79" s="110" t="s">
         <v>143</v>
       </c>
       <c r="E79" s="22" t="s">
@@ -10063,10 +10180,10 @@
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
       <c r="J79" s="23"/>
-      <c r="O79" s="83"/>
+      <c r="O79" s="81"/>
     </row>
     <row r="80" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="82" t="str">
+      <c r="B80" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-B_1540-1469_1-1_flua7_submittername</v>
       </c>
@@ -10074,7 +10191,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-B_1540-1469_1-1_flua7_submittername.fa</v>
       </c>
-      <c r="D80" s="55" t="s">
+      <c r="D80" s="110" t="s">
         <v>143</v>
       </c>
       <c r="E80" s="22" t="s">
@@ -10087,62 +10204,66 @@
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23"/>
-      <c r="O80" s="83"/>
+      <c r="O80" s="81"/>
     </row>
     <row r="81" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="77" t="str">
+      <c r="B81" s="75" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-B_1540-1469_1-1_flua8_submittername</v>
       </c>
-      <c r="C81" s="56" t="str">
+      <c r="C81" s="54" t="str">
         <f t="shared" si="5"/>
         <v>MIX3-B_1540-1469_1-1_flua8_submittername.fa</v>
       </c>
-      <c r="D81" s="57" t="s">
+      <c r="D81" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="E81" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F81" s="59" t="s">
+      <c r="F81" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G81" s="59"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="84"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="58"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="54"/>
+      <c r="O81" s="82"/>
     </row>
     <row r="82" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="82" t="str">
+      <c r="B82" s="78" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-C_1540-1469_1-4_rsva_submittername</v>
       </c>
-      <c r="C82" s="1" t="str">
+      <c r="C82" s="63" t="str">
         <f t="shared" si="5"/>
         <v>MIX3-C_1540-1469_1-4_rsva_submittername.fa</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D82" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="G82" s="22"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="23"/>
-      <c r="O82" s="83"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="85"/>
     </row>
     <row r="83" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="82" t="str">
+      <c r="B83" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-C_1540-1469_1-4_flua1_submittername</v>
       </c>
@@ -10150,7 +10271,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-C_1540-1469_1-4_flua1_submittername.fa</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="110" t="s">
         <v>144</v>
       </c>
       <c r="E83" s="22" t="s">
@@ -10163,10 +10284,10 @@
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
       <c r="J83" s="23"/>
-      <c r="O83" s="83"/>
+      <c r="O83" s="81"/>
     </row>
     <row r="84" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="82" t="str">
+      <c r="B84" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-C_1540-1469_1-4_flua2_submittername</v>
       </c>
@@ -10174,7 +10295,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-C_1540-1469_1-4_flua2_submittername.fa</v>
       </c>
-      <c r="D84" s="55" t="s">
+      <c r="D84" s="110" t="s">
         <v>144</v>
       </c>
       <c r="E84" s="22" t="s">
@@ -10187,10 +10308,10 @@
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
       <c r="J84" s="23"/>
-      <c r="O84" s="83"/>
+      <c r="O84" s="81"/>
     </row>
     <row r="85" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="82" t="str">
+      <c r="B85" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-C_1540-1469_1-4_flua3_submittername</v>
       </c>
@@ -10198,7 +10319,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-C_1540-1469_1-4_flua3_submittername.fa</v>
       </c>
-      <c r="D85" s="55" t="s">
+      <c r="D85" s="110" t="s">
         <v>144</v>
       </c>
       <c r="E85" s="22" t="s">
@@ -10211,10 +10332,10 @@
       <c r="H85" s="23"/>
       <c r="I85" s="23"/>
       <c r="J85" s="23"/>
-      <c r="O85" s="83"/>
+      <c r="O85" s="81"/>
     </row>
     <row r="86" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="82" t="str">
+      <c r="B86" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-C_1540-1469_1-4_flua4_submittername</v>
       </c>
@@ -10222,7 +10343,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-C_1540-1469_1-4_flua4_submittername.fa</v>
       </c>
-      <c r="D86" s="55" t="s">
+      <c r="D86" s="110" t="s">
         <v>144</v>
       </c>
       <c r="E86" s="22" t="s">
@@ -10234,10 +10355,10 @@
       <c r="G86" s="22"/>
       <c r="H86" s="23"/>
       <c r="J86" s="23"/>
-      <c r="O86" s="83"/>
+      <c r="O86" s="81"/>
     </row>
     <row r="87" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="82" t="str">
+      <c r="B87" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-C_1540-1469_1-4_flua5_submittername</v>
       </c>
@@ -10245,7 +10366,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-C_1540-1469_1-4_flua5_submittername.fa</v>
       </c>
-      <c r="D87" s="55" t="s">
+      <c r="D87" s="110" t="s">
         <v>144</v>
       </c>
       <c r="E87" s="22" t="s">
@@ -10257,10 +10378,10 @@
       <c r="G87" s="22"/>
       <c r="H87" s="23"/>
       <c r="J87" s="23"/>
-      <c r="O87" s="83"/>
+      <c r="O87" s="81"/>
     </row>
     <row r="88" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="82" t="str">
+      <c r="B88" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-C_1540-1469_1-4_flua6_submittername</v>
       </c>
@@ -10268,7 +10389,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-C_1540-1469_1-4_flua6_submittername.fa</v>
       </c>
-      <c r="D88" s="55" t="s">
+      <c r="D88" s="110" t="s">
         <v>144</v>
       </c>
       <c r="E88" s="22" t="s">
@@ -10280,10 +10401,10 @@
       <c r="G88" s="22"/>
       <c r="H88" s="23"/>
       <c r="J88" s="23"/>
-      <c r="O88" s="83"/>
+      <c r="O88" s="81"/>
     </row>
     <row r="89" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="82" t="str">
+      <c r="B89" s="80" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-C_1540-1469_1-4_flua7_submittername</v>
       </c>
@@ -10291,7 +10412,7 @@
         <f t="shared" si="5"/>
         <v>MIX3-C_1540-1469_1-4_flua7_submittername.fa</v>
       </c>
-      <c r="D89" s="55" t="s">
+      <c r="D89" s="110" t="s">
         <v>144</v>
       </c>
       <c r="E89" s="22" t="s">
@@ -10303,35 +10424,1151 @@
       <c r="G89" s="22"/>
       <c r="H89" s="23"/>
       <c r="J89" s="23"/>
-      <c r="O89" s="83"/>
-    </row>
-    <row r="90" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="88" t="str">
+      <c r="O89" s="81"/>
+    </row>
+    <row r="90" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="75" t="str">
         <f t="shared" si="4"/>
         <v>MIX3-C_1540-1469_1-4_flua8_submittername</v>
       </c>
-      <c r="C90" s="89" t="str">
+      <c r="C90" s="54" t="str">
         <f t="shared" si="5"/>
         <v>MIX3-C_1540-1469_1-4_flua8_submittername.fa</v>
       </c>
-      <c r="D90" s="90" t="s">
+      <c r="D90" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="E90" s="91" t="s">
+      <c r="E90" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F90" s="91" t="s">
+      <c r="F90" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="G90" s="91"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="92"/>
-      <c r="K90" s="89"/>
-      <c r="L90" s="89"/>
-      <c r="M90" s="89"/>
-      <c r="N90" s="89"/>
-      <c r="O90" s="93"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="54"/>
+      <c r="L90" s="54"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="54"/>
+      <c r="O90" s="82"/>
+    </row>
+    <row r="91" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>MIX4-A_1469-777_4-1_flua1_submittername</v>
+      </c>
+      <c r="C91" s="63" t="str">
+        <f t="shared" si="5"/>
+        <v>MIX4-A_1469-777_4-1_flua1_submittername.fa</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="G91" s="69"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="69"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="69"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="69"/>
+      <c r="O91" s="120"/>
+    </row>
+    <row r="92" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>MIX4-A_1469-777_4-1_flua2_submittername</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MIX4-A_1469-777_4-1_flua2_submittername.fa</v>
+      </c>
+      <c r="D92" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O92" s="121"/>
+    </row>
+    <row r="93" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>MIX4-A_1469-777_4-1_flua3_submittername</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MIX4-A_1469-777_4-1_flua3_submittername.fa</v>
+      </c>
+      <c r="D93" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O93" s="121"/>
+    </row>
+    <row r="94" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>MIX4-A_1469-777_4-1_flua4_submittername</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MIX4-A_1469-777_4-1_flua4_submittername.fa</v>
+      </c>
+      <c r="D94" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O94" s="121"/>
+    </row>
+    <row r="95" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>MIX4-A_1469-777_4-1_flua5_submittername</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MIX4-A_1469-777_4-1_flua5_submittername.fa</v>
+      </c>
+      <c r="D95" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O95" s="121"/>
+    </row>
+    <row r="96" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>MIX4-A_1469-777_4-1_flua6_submittername</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MIX4-A_1469-777_4-1_flua6_submittername.fa</v>
+      </c>
+      <c r="D96" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O96" s="121"/>
+    </row>
+    <row r="97" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="80" t="str">
+        <f t="shared" si="4"/>
+        <v>MIX4-A_1469-777_4-1_flua7_submittername</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>MIX4-A_1469-777_4-1_flua7_submittername.fa</v>
+      </c>
+      <c r="D97" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O97" s="121"/>
+    </row>
+    <row r="98" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="75" t="str">
+        <f t="shared" si="4"/>
+        <v>MIX4-A_1469-777_4-1_flua8_submittername</v>
+      </c>
+      <c r="C98" s="54" t="str">
+        <f t="shared" si="5"/>
+        <v>MIX4-A_1469-777_4-1_flua8_submittername.fa</v>
+      </c>
+      <c r="D98" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E98" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="67"/>
+      <c r="N98" s="67"/>
+      <c r="O98" s="122"/>
+    </row>
+    <row r="99" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="78" t="str">
+        <f t="shared" ref="B99:B106" si="6">D99 &amp; "_" &amp; F99 &amp; "_" &amp; B$5</f>
+        <v>MIX4-B_1469-777_1-1_flua1_submittername</v>
+      </c>
+      <c r="C99" s="63" t="str">
+        <f t="shared" ref="C99:C106" si="7">D99 &amp; "_" &amp; F99 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
+        <v>MIX4-B_1469-777_1-1_flua1_submittername.fa</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E99" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
+      <c r="O99" s="120"/>
+    </row>
+    <row r="100" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>MIX4-B_1469-777_1-1_flua2_submittername</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>MIX4-B_1469-777_1-1_flua2_submittername.fa</v>
+      </c>
+      <c r="D100" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O100" s="121"/>
+    </row>
+    <row r="101" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>MIX4-B_1469-777_1-1_flua3_submittername</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>MIX4-B_1469-777_1-1_flua3_submittername.fa</v>
+      </c>
+      <c r="D101" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O101" s="121"/>
+    </row>
+    <row r="102" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>MIX4-B_1469-777_1-1_flua4_submittername</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>MIX4-B_1469-777_1-1_flua4_submittername.fa</v>
+      </c>
+      <c r="D102" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O102" s="121"/>
+    </row>
+    <row r="103" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>MIX4-B_1469-777_1-1_flua5_submittername</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>MIX4-B_1469-777_1-1_flua5_submittername.fa</v>
+      </c>
+      <c r="D103" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O103" s="121"/>
+    </row>
+    <row r="104" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>MIX4-B_1469-777_1-1_flua6_submittername</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>MIX4-B_1469-777_1-1_flua6_submittername.fa</v>
+      </c>
+      <c r="D104" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O104" s="121"/>
+    </row>
+    <row r="105" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="80" t="str">
+        <f t="shared" si="6"/>
+        <v>MIX4-B_1469-777_1-1_flua7_submittername</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>MIX4-B_1469-777_1-1_flua7_submittername.fa</v>
+      </c>
+      <c r="D105" s="110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O105" s="121"/>
+    </row>
+    <row r="106" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="75" t="str">
+        <f t="shared" si="6"/>
+        <v>MIX4-B_1469-777_1-1_flua8_submittername</v>
+      </c>
+      <c r="C106" s="54" t="str">
+        <f t="shared" si="7"/>
+        <v>MIX4-B_1469-777_1-1_flua8_submittername.fa</v>
+      </c>
+      <c r="D106" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
+      <c r="L106" s="67"/>
+      <c r="M106" s="67"/>
+      <c r="N106" s="67"/>
+      <c r="O106" s="122"/>
+    </row>
+    <row r="107" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="78" t="str">
+        <f t="shared" ref="B107:B123" si="8">D107 &amp; "_" &amp; F107 &amp; "_" &amp; B$5</f>
+        <v>MIX4-C_1469-777_1-1_flua1_submittername</v>
+      </c>
+      <c r="C107" s="63" t="str">
+        <f t="shared" ref="C107:C123" si="9">D107 &amp; "_" &amp; F107 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
+        <v>MIX4-C_1469-777_1-1_flua1_submittername.fa</v>
+      </c>
+      <c r="D107" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="E107" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="G107" s="69"/>
+      <c r="H107" s="69"/>
+      <c r="I107" s="69"/>
+      <c r="J107" s="69"/>
+      <c r="K107" s="69"/>
+      <c r="L107" s="69"/>
+      <c r="M107" s="69"/>
+      <c r="N107" s="69"/>
+      <c r="O107" s="120"/>
+    </row>
+    <row r="108" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX4-C_1469-777_1-1_flua2_submittername</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX4-C_1469-777_1-1_flua2_submittername.fa</v>
+      </c>
+      <c r="D108" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O108" s="121"/>
+    </row>
+    <row r="109" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX4-C_1469-777_1-1_flua3_submittername</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX4-C_1469-777_1-1_flua3_submittername.fa</v>
+      </c>
+      <c r="D109" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O109" s="121"/>
+    </row>
+    <row r="110" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX4-C_1469-777_1-1_flua4_submittername</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX4-C_1469-777_1-1_flua4_submittername.fa</v>
+      </c>
+      <c r="D110" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O110" s="121"/>
+    </row>
+    <row r="111" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX4-C_1469-777_1-1_flua5_submittername</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX4-C_1469-777_1-1_flua5_submittername.fa</v>
+      </c>
+      <c r="D111" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O111" s="121"/>
+    </row>
+    <row r="112" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX4-C_1469-777_1-1_flua6_submittername</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX4-C_1469-777_1-1_flua6_submittername.fa</v>
+      </c>
+      <c r="D112" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O112" s="121"/>
+    </row>
+    <row r="113" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX4-C_1469-777_1-1_flua7_submittername</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX4-C_1469-777_1-1_flua7_submittername.fa</v>
+      </c>
+      <c r="D113" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O113" s="121"/>
+    </row>
+    <row r="114" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="75" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX4-C_1469-777_1-1_flua8_submittername</v>
+      </c>
+      <c r="C114" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX4-C_1469-777_1-1_flua8_submittername.fa</v>
+      </c>
+      <c r="D114" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E114" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="67"/>
+      <c r="M114" s="67"/>
+      <c r="N114" s="67"/>
+      <c r="O114" s="122"/>
+    </row>
+    <row r="115" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX5-A_1540-1469_4-1_rsva_submittername</v>
+      </c>
+      <c r="C115" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX5-A_1540-1469_4-1_rsva_submittername.fa</v>
+      </c>
+      <c r="D115" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E115" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F115" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
+      <c r="J115" s="69"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="69"/>
+      <c r="M115" s="69"/>
+      <c r="N115" s="69"/>
+      <c r="O115" s="120"/>
+    </row>
+    <row r="116" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX5-A_1540-1469_4-1_flua1_submittername</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX5-A_1540-1469_4-1_flua1_submittername.fa</v>
+      </c>
+      <c r="D116" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O116" s="121"/>
+    </row>
+    <row r="117" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX5-A_1540-1469_4-1_flua2_submittername</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX5-A_1540-1469_4-1_flua2_submittername.fa</v>
+      </c>
+      <c r="D117" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O117" s="121"/>
+    </row>
+    <row r="118" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX5-A_1540-1469_4-1_flua3_submittername</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX5-A_1540-1469_4-1_flua3_submittername.fa</v>
+      </c>
+      <c r="D118" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O118" s="121"/>
+    </row>
+    <row r="119" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX5-A_1540-1469_4-1_flua4_submittername</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX5-A_1540-1469_4-1_flua4_submittername.fa</v>
+      </c>
+      <c r="D119" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O119" s="121"/>
+    </row>
+    <row r="120" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX5-A_1540-1469_4-1_flua5_submittername</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX5-A_1540-1469_4-1_flua5_submittername.fa</v>
+      </c>
+      <c r="D120" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O120" s="121"/>
+    </row>
+    <row r="121" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX5-A_1540-1469_4-1_flua6_submittername</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX5-A_1540-1469_4-1_flua6_submittername.fa</v>
+      </c>
+      <c r="D121" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O121" s="121"/>
+    </row>
+    <row r="122" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="80" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX5-A_1540-1469_4-1_flua7_submittername</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX5-A_1540-1469_4-1_flua7_submittername.fa</v>
+      </c>
+      <c r="D122" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O122" s="121"/>
+    </row>
+    <row r="123" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="75" t="str">
+        <f t="shared" si="8"/>
+        <v>MIX5-A_1540-1469_4-1_flua8_submittername</v>
+      </c>
+      <c r="C123" s="54" t="str">
+        <f t="shared" si="9"/>
+        <v>MIX5-A_1540-1469_4-1_flua8_submittername.fa</v>
+      </c>
+      <c r="D123" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F123" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="67"/>
+      <c r="N123" s="67"/>
+      <c r="O123" s="122"/>
+    </row>
+    <row r="124" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="78" t="str">
+        <f t="shared" ref="B124:B132" si="10">D124 &amp; "_" &amp; F124 &amp; "_" &amp; B$5</f>
+        <v>MIX5-B_1540-1469_1-1_rsva_submittername</v>
+      </c>
+      <c r="C124" s="63" t="str">
+        <f t="shared" ref="C124:C132" si="11">D124 &amp; "_" &amp; F124 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
+        <v>MIX5-B_1540-1469_1-1_rsva_submittername.fa</v>
+      </c>
+      <c r="D124" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="E124" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F124" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
+      <c r="M124" s="69"/>
+      <c r="N124" s="69"/>
+      <c r="O124" s="120"/>
+    </row>
+    <row r="125" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="80" t="str">
+        <f t="shared" si="10"/>
+        <v>MIX5-B_1540-1469_1-1_flua1_submittername</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>MIX5-B_1540-1469_1-1_flua1_submittername.fa</v>
+      </c>
+      <c r="D125" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O125" s="121"/>
+    </row>
+    <row r="126" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="80" t="str">
+        <f t="shared" si="10"/>
+        <v>MIX5-B_1540-1469_1-1_flua2_submittername</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>MIX5-B_1540-1469_1-1_flua2_submittername.fa</v>
+      </c>
+      <c r="D126" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O126" s="121"/>
+    </row>
+    <row r="127" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="80" t="str">
+        <f t="shared" si="10"/>
+        <v>MIX5-B_1540-1469_1-1_flua3_submittername</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>MIX5-B_1540-1469_1-1_flua3_submittername.fa</v>
+      </c>
+      <c r="D127" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O127" s="121"/>
+    </row>
+    <row r="128" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="80" t="str">
+        <f t="shared" si="10"/>
+        <v>MIX5-B_1540-1469_1-1_flua4_submittername</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>MIX5-B_1540-1469_1-1_flua4_submittername.fa</v>
+      </c>
+      <c r="D128" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O128" s="121"/>
+    </row>
+    <row r="129" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="80" t="str">
+        <f t="shared" si="10"/>
+        <v>MIX5-B_1540-1469_1-1_flua5_submittername</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>MIX5-B_1540-1469_1-1_flua5_submittername.fa</v>
+      </c>
+      <c r="D129" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O129" s="121"/>
+    </row>
+    <row r="130" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="80" t="str">
+        <f t="shared" si="10"/>
+        <v>MIX5-B_1540-1469_1-1_flua6_submittername</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>MIX5-B_1540-1469_1-1_flua6_submittername.fa</v>
+      </c>
+      <c r="D130" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F130" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O130" s="121"/>
+    </row>
+    <row r="131" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="80" t="str">
+        <f t="shared" si="10"/>
+        <v>MIX5-B_1540-1469_1-1_flua7_submittername</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>MIX5-B_1540-1469_1-1_flua7_submittername.fa</v>
+      </c>
+      <c r="D131" s="110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F131" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O131" s="121"/>
+    </row>
+    <row r="132" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="75" t="str">
+        <f t="shared" si="10"/>
+        <v>MIX5-B_1540-1469_1-1_flua8_submittername</v>
+      </c>
+      <c r="C132" s="54" t="str">
+        <f t="shared" si="11"/>
+        <v>MIX5-B_1540-1469_1-1_flua8_submittername.fa</v>
+      </c>
+      <c r="D132" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F132" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="67"/>
+      <c r="K132" s="67"/>
+      <c r="L132" s="67"/>
+      <c r="M132" s="67"/>
+      <c r="N132" s="67"/>
+      <c r="O132" s="122"/>
+    </row>
+    <row r="133" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="78" t="str">
+        <f t="shared" ref="B133:B141" si="12">D133 &amp; "_" &amp; F133 &amp; "_" &amp; B$5</f>
+        <v>MIX5-C_1540-1469_1-4_rsva_submittername</v>
+      </c>
+      <c r="C133" s="63" t="str">
+        <f t="shared" ref="C133:C141" si="13">D133 &amp; "_" &amp; F133 &amp; "_" &amp; B$5 &amp; "." &amp; C$5</f>
+        <v>MIX5-C_1540-1469_1-4_rsva_submittername.fa</v>
+      </c>
+      <c r="D133" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="E133" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F133" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="G133" s="69"/>
+      <c r="H133" s="69"/>
+      <c r="I133" s="69"/>
+      <c r="J133" s="69"/>
+      <c r="K133" s="69"/>
+      <c r="L133" s="69"/>
+      <c r="M133" s="69"/>
+      <c r="N133" s="69"/>
+      <c r="O133" s="120"/>
+    </row>
+    <row r="134" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="80" t="str">
+        <f t="shared" si="12"/>
+        <v>MIX5-C_1540-1469_1-4_flua1_submittername</v>
+      </c>
+      <c r="C134" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MIX5-C_1540-1469_1-4_flua1_submittername.fa</v>
+      </c>
+      <c r="D134" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O134" s="121"/>
+    </row>
+    <row r="135" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="80" t="str">
+        <f t="shared" si="12"/>
+        <v>MIX5-C_1540-1469_1-4_flua2_submittername</v>
+      </c>
+      <c r="C135" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MIX5-C_1540-1469_1-4_flua2_submittername.fa</v>
+      </c>
+      <c r="D135" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O135" s="121"/>
+    </row>
+    <row r="136" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="80" t="str">
+        <f t="shared" si="12"/>
+        <v>MIX5-C_1540-1469_1-4_flua3_submittername</v>
+      </c>
+      <c r="C136" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MIX5-C_1540-1469_1-4_flua3_submittername.fa</v>
+      </c>
+      <c r="D136" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O136" s="121"/>
+    </row>
+    <row r="137" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="80" t="str">
+        <f t="shared" si="12"/>
+        <v>MIX5-C_1540-1469_1-4_flua4_submittername</v>
+      </c>
+      <c r="C137" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MIX5-C_1540-1469_1-4_flua4_submittername.fa</v>
+      </c>
+      <c r="D137" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O137" s="121"/>
+    </row>
+    <row r="138" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="80" t="str">
+        <f t="shared" si="12"/>
+        <v>MIX5-C_1540-1469_1-4_flua5_submittername</v>
+      </c>
+      <c r="C138" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MIX5-C_1540-1469_1-4_flua5_submittername.fa</v>
+      </c>
+      <c r="D138" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F138" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="O138" s="121"/>
+    </row>
+    <row r="139" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="80" t="str">
+        <f t="shared" si="12"/>
+        <v>MIX5-C_1540-1469_1-4_flua6_submittername</v>
+      </c>
+      <c r="C139" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MIX5-C_1540-1469_1-4_flua6_submittername.fa</v>
+      </c>
+      <c r="D139" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O139" s="121"/>
+    </row>
+    <row r="140" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="80" t="str">
+        <f t="shared" si="12"/>
+        <v>MIX5-C_1540-1469_1-4_flua7_submittername</v>
+      </c>
+      <c r="C140" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MIX5-C_1540-1469_1-4_flua7_submittername.fa</v>
+      </c>
+      <c r="D140" s="110" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O140" s="121"/>
+    </row>
+    <row r="141" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B141" s="86" t="str">
+        <f t="shared" si="12"/>
+        <v>MIX5-C_1540-1469_1-4_flua8_submittername</v>
+      </c>
+      <c r="C141" s="87" t="str">
+        <f t="shared" si="13"/>
+        <v>MIX5-C_1540-1469_1-4_flua8_submittername.fa</v>
+      </c>
+      <c r="D141" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="F141" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="G141" s="123"/>
+      <c r="H141" s="123"/>
+      <c r="I141" s="123"/>
+      <c r="J141" s="123"/>
+      <c r="K141" s="123"/>
+      <c r="L141" s="123"/>
+      <c r="M141" s="123"/>
+      <c r="N141" s="123"/>
+      <c r="O141" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="3">
